--- a/_Documents/Code Sinaia 2025.xlsx
+++ b/_Documents/Code Sinaia 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git.Hub\inproted\CodeSinaia-2025\_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37DAB78-AF94-4953-952F-DF64BF2B0937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A97340-3B04-4FE1-BF38-C7E94A5B41F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-9660" windowWidth="38620" windowHeight="21100" xr2:uid="{89E07A6D-71C8-4C46-818C-DE0CDAEAF49B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="120">
   <si>
     <t>Code Sinaia 2025</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>IediGoat007</t>
+  </si>
+  <si>
+    <t>turtle-key</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1115,6 +1118,9 @@
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G10" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
